--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WISCONSIN_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WISCONSIN_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1234"/>
+  <dimension ref="A1:D1228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C6">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C52">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C69">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C80">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C97">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C137">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C145">
@@ -2408,12 +2408,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C154">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C158">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C163">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C169">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C172">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C183">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C198">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C200">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C211">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C219">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C227">
@@ -3473,7 +3473,7 @@
         <v>851</v>
       </c>
       <c r="D235">
-        <v>0.09201989619377163</v>
+        <v>0.09201989619377164</v>
       </c>
     </row>
     <row r="236">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C240">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C247">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C258">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C267">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C269">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C273">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C281">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C293">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C302">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C312">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C315">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C330">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C335">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C346">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C350">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C354">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C357">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C368">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C374">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C389">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C395">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C397">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C402">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C413">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C419">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C423">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C427">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C433">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C438">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C441">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C445">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C452">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C459">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C467">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C471">
@@ -7799,7 +7799,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C566">
@@ -7825,7 +7825,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C568">
@@ -7890,7 +7890,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C573">
@@ -7903,7 +7903,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C574">
@@ -7981,7 +7981,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C580">
@@ -8025,7 +8025,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C583">
@@ -8238,7 +8238,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C599">
@@ -8290,7 +8290,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C603">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C607">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C614">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C617">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C619">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C627">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C634">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C637">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C641">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C643">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C658">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C678">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C698">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C727">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C743">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C749">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C777">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C795">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C804">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C808">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C814">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C818">
@@ -11277,7 +11277,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C832">
@@ -11433,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C844">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C852">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C853">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C856">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C868">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C881">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C889">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C892">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C897">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C919">
@@ -12426,7 +12426,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C920">
@@ -12478,7 +12478,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C924">
@@ -12530,7 +12530,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C928">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C938">
@@ -12748,7 +12748,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C944">
@@ -12891,7 +12891,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C955">
@@ -12969,7 +12969,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C961">
@@ -12982,7 +12982,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C962">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1016">
@@ -13813,7 +13813,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1024">
@@ -13852,7 +13852,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1027">
@@ -13865,7 +13865,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1028">
@@ -13917,7 +13917,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1032">
@@ -14156,7 +14156,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1050">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1053">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1062">
@@ -14351,7 +14351,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1065">
@@ -14507,7 +14507,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1077">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1078">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1089">
@@ -14689,7 +14689,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1091">
@@ -14702,7 +14702,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1092">
@@ -14715,7 +14715,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1093">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1102">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1104">
@@ -14884,7 +14884,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1106">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1107">
@@ -14910,7 +14910,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1108">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1111">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1128">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1136">
@@ -15313,7 +15313,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1139">
@@ -15378,7 +15378,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1144">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1168">
@@ -15986,7 +15986,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1190">
@@ -16103,7 +16103,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1199">
@@ -16207,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1207">
@@ -16220,7 +16220,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1208">
@@ -16337,7 +16337,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1217">
@@ -16350,7 +16350,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1218">
@@ -16363,7 +16363,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1219">
@@ -16402,7 +16402,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1222">
@@ -16488,41 +16488,6 @@
       </c>
       <c r="D1228">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
